--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newautomations\testng-automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83514D9D-C59E-45CA-B094-5F66404B50B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D1DF0-1F50-42CF-94DB-9F5A1E332873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Value</t>
   </si>
@@ -55,12 +55,102 @@
   </si>
   <si>
     <t>hfuir</t>
+  </si>
+  <si>
+    <t>export</t>
+  </si>
+  <si>
+    <t>name_of_export_csv_file</t>
+  </si>
+  <si>
+    <t>name_export_chart_allMachines</t>
+  </si>
+  <si>
+    <t>solcare-observation</t>
+  </si>
+  <si>
+    <t>extention_export_chart_allMachines</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>name_export_chart_specificMachine</t>
+  </si>
+  <si>
+    <t>extention_export_chart_specificMachine</t>
+  </si>
+  <si>
+    <t>solcare-details</t>
+  </si>
+  <si>
+    <t>taskname</t>
+  </si>
+  <si>
+    <t>Test Task</t>
+  </si>
+  <si>
+    <t>duedate</t>
+  </si>
+  <si>
+    <t>taskdescription</t>
+  </si>
+  <si>
+    <t>This is a Test Task</t>
+  </si>
+  <si>
+    <t>20032023</t>
+  </si>
+  <si>
+    <t>TestBot</t>
+  </si>
+  <si>
+    <t>Elite automations</t>
+  </si>
+  <si>
+    <t>test_edit_profile_company_name</t>
+  </si>
+  <si>
+    <t>test_edit_profile_user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_edit_profile_user_contact_num </t>
+  </si>
+  <si>
+    <t>original_edit_profile_company_name</t>
+  </si>
+  <si>
+    <t>original_edit_profile_user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original_edit_profile_user_contact_num </t>
+  </si>
+  <si>
+    <t>Parikshit</t>
+  </si>
+  <si>
+    <t>Yugasa Software Labs</t>
+  </si>
+  <si>
+    <t>task_sample</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t>name_download_sample_excel_taskpage</t>
+  </si>
+  <si>
+    <t>extention_download_sample_excel_taskpage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -283,7 +373,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,7 +659,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -661,100 +751,164 @@
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="B6" s="3"/>
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8" s="11"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="11"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="11"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="B14" s="3"/>
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="11"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="11"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9686435690</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="13"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="11"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9711474332</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="11"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
+      <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8">
+      <c r="A21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="11"/>
       <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="3"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="3"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newautomations\testng-automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726D1DF0-1F50-42CF-94DB-9F5A1E332873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D019D9-E067-499B-9EE2-C20BC1B1150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1164" windowWidth="17496" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Value</t>
   </si>
@@ -39,9 +39,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Adi@123</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>taskdescription</t>
   </si>
   <si>
-    <t>This is a Test Task</t>
-  </si>
-  <si>
-    <t>20032023</t>
-  </si>
-  <si>
     <t>TestBot</t>
   </si>
   <si>
@@ -142,6 +133,39 @@
   </si>
   <si>
     <t>extention_download_sample_excel_taskpage</t>
+  </si>
+  <si>
+    <t>This task was a testing task if its visible there is a possiblility that some functionality on website is not working or response of website is slow.Delete this task if visible.</t>
+  </si>
+  <si>
+    <t>Adi123</t>
+  </si>
+  <si>
+    <t>machine_unique_code_sample</t>
+  </si>
+  <si>
+    <t>Test111</t>
+  </si>
+  <si>
+    <t>reseted_password</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>30/03/2023</t>
+  </si>
+  <si>
+    <t>02/04/2023</t>
+  </si>
+  <si>
+    <t>03/04/2023</t>
+  </si>
+  <si>
+    <t>04/04/2023</t>
   </si>
 </sst>
 </file>
@@ -655,29 +679,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AB191"/>
+  <dimension ref="A1:AB193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:B21"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.21875" customWidth="1"/>
-    <col min="12" max="12" width="46.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="46.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="15" thickBot="1">
@@ -727,226 +751,233 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:28">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6" t="s">
-        <v>11</v>
+      <c r="A6" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7" s="11" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="9"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="9"/>
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3">
-        <v>9686435690</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
+      <c r="A17" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9686435690</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3">
-        <v>9711474332</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9711474332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8">
+      <c r="A23" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.8">
-      <c r="A21" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="3"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="11"/>
-      <c r="B26" s="3"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:11">
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="K28" s="11"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="11"/>
       <c r="B29" s="3"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="11"/>
@@ -966,17 +997,20 @@
       <c r="B33" s="3"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="K33" s="14"/>
+      <c r="K33" s="11"/>
     </row>
     <row r="34" spans="1:11">
+      <c r="A34" s="11"/>
       <c r="B34" s="3"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:11">
+      <c r="A35" s="11"/>
       <c r="B35" s="3"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
+      <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="3"/>
@@ -999,7 +1033,6 @@
       <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="11"/>
       <c r="B40" s="3"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1010,6 +1043,7 @@
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:11">
+      <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1025,7 +1059,6 @@
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="11"/>
       <c r="B45" s="3"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -1036,6 +1069,7 @@
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:11">
+      <c r="A47" s="11"/>
       <c r="B47" s="3"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1046,7 +1080,6 @@
       <c r="D48" s="9"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="11"/>
       <c r="B49" s="3"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1055,18 +1088,18 @@
       <c r="B50" s="3"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="K50" s="11"/>
     </row>
     <row r="51" spans="1:12">
+      <c r="A51" s="11"/>
       <c r="B51" s="3"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="11"/>
       <c r="B52" s="3"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="1:12">
       <c r="B53" s="3"/>
@@ -1094,33 +1127,32 @@
       <c r="B57" s="3"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="K57" s="15"/>
-    </row>
-    <row r="58" spans="1:12" ht="27" customHeight="1">
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="3"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="L58" s="16"/>
     </row>
     <row r="59" spans="1:12">
       <c r="B59" s="3"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:12" ht="27" customHeight="1">
+      <c r="A60" s="11"/>
       <c r="B60" s="3"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
+      <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="11"/>
       <c r="B61" s="3"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="11"/>
       <c r="B62" s="3"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1138,11 +1170,13 @@
       <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:13">
+      <c r="A65" s="11"/>
       <c r="B65" s="3"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
     <row r="66" spans="1:13">
+      <c r="A66" s="11"/>
       <c r="B66" s="3"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -1153,18 +1187,17 @@
       <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="11"/>
       <c r="B68" s="3"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="11"/>
       <c r="B69" s="3"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:13">
+      <c r="A70" s="11"/>
       <c r="B70" s="3"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1174,14 +1207,11 @@
       <c r="B71" s="3"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="11"/>
       <c r="B72" s="3"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="11"/>
@@ -1217,7 +1247,6 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="K77" s="11"/>
-      <c r="M77" s="11"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="11"/>
@@ -1232,6 +1261,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="K79" s="11"/>
+      <c r="M79" s="11"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="11"/>
@@ -1262,63 +1292,63 @@
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11">
+      <c r="A84" s="11"/>
       <c r="B84" s="3"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
+      <c r="K84" s="11"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="11"/>
       <c r="B85" s="3"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
+      <c r="K85" s="11"/>
     </row>
     <row r="86" spans="1:11">
       <c r="B86" s="3"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="K86" s="17"/>
     </row>
     <row r="87" spans="1:11">
+      <c r="A87" s="11"/>
       <c r="B87" s="3"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="11"/>
       <c r="B88" s="3"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="K88" s="17"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="11"/>
       <c r="B89" s="3"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="K89" s="17"/>
     </row>
     <row r="90" spans="1:11">
+      <c r="A90" s="11"/>
       <c r="B90" s="3"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="K90" s="17"/>
     </row>
     <row r="91" spans="1:11">
+      <c r="A91" s="11"/>
       <c r="B91" s="3"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="K91" s="17"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="11"/>
       <c r="B92" s="3"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="K92" s="17"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="11"/>
       <c r="B93" s="3"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -1413,6 +1443,7 @@
       <c r="B106" s="3"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
+      <c r="K106" s="17"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="11"/>
@@ -1426,14 +1457,13 @@
       <c r="B108" s="3"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
-      <c r="K108" s="17"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="11"/>
       <c r="B109" s="3"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="K109" s="18"/>
+      <c r="K109" s="17"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="11"/>
@@ -1447,7 +1477,7 @@
       <c r="B111" s="3"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="K111" s="17"/>
+      <c r="K111" s="18"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="11"/>
@@ -1475,7 +1505,7 @@
       <c r="B115" s="3"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="K115" s="18"/>
+      <c r="K115" s="17"/>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="11"/>
@@ -1489,62 +1519,62 @@
       <c r="B117" s="3"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="K117" s="19"/>
+      <c r="K117" s="18"/>
     </row>
     <row r="118" spans="1:11">
+      <c r="A118" s="11"/>
       <c r="B118" s="3"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="K118" s="19"/>
+      <c r="K118" s="17"/>
     </row>
     <row r="119" spans="1:11">
+      <c r="A119" s="11"/>
       <c r="B119" s="3"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="K119" s="17"/>
+      <c r="K119" s="19"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="11"/>
       <c r="B120" s="3"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="K120" s="17"/>
+      <c r="K120" s="19"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="11"/>
       <c r="B121" s="3"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="K121" s="17"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="12"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="3"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
+      <c r="K122" s="17"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="11"/>
       <c r="B123" s="3"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
+      <c r="K123" s="17"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="12"/>
       <c r="B124" s="3"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="K124" s="17"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="11"/>
       <c r="B125" s="3"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="K125" s="17"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="11"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="3"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
@@ -1562,7 +1592,7 @@
       <c r="B128" s="3"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="K128" s="11"/>
+      <c r="K128" s="17"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="11"/>
@@ -1576,7 +1606,7 @@
       <c r="B130" s="3"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="K130" s="17"/>
+      <c r="K130" s="11"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="11"/>
@@ -1597,6 +1627,7 @@
       <c r="B133" s="3"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
+      <c r="K133" s="17"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="11"/>
@@ -1610,7 +1641,6 @@
       <c r="B135" s="3"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="K135" s="17"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="11"/>
@@ -1641,18 +1671,20 @@
       <c r="K139" s="17"/>
     </row>
     <row r="140" spans="1:11">
+      <c r="A140" s="11"/>
       <c r="B140" s="3"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
+      <c r="K140" s="17"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="11"/>
       <c r="B141" s="3"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
+      <c r="K141" s="17"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="11"/>
       <c r="B142" s="3"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -1668,14 +1700,12 @@
       <c r="B144" s="3"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="K144" s="17"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="11"/>
       <c r="B145" s="3"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="K145" s="17"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="11"/>
@@ -1709,16 +1739,14 @@
       <c r="A150" s="11"/>
       <c r="B150" s="3"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="15"/>
+      <c r="D150" s="9"/>
       <c r="K150" s="17"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="11"/>
       <c r="B151" s="3"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="15"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="15"/>
+      <c r="D151" s="9"/>
       <c r="K151" s="17"/>
     </row>
     <row r="152" spans="1:11">
@@ -1726,71 +1754,75 @@
       <c r="B152" s="3"/>
       <c r="C152" s="9"/>
       <c r="D152" s="15"/>
-      <c r="K152" s="11"/>
+      <c r="K152" s="17"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="11"/>
       <c r="B153" s="3"/>
       <c r="C153" s="9"/>
       <c r="D153" s="15"/>
-      <c r="K153" s="11"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="17"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="11"/>
       <c r="B154" s="3"/>
       <c r="C154" s="9"/>
       <c r="D154" s="15"/>
-      <c r="K154" s="17"/>
+      <c r="K154" s="11"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="11"/>
       <c r="B155" s="3"/>
       <c r="C155" s="9"/>
       <c r="D155" s="15"/>
-      <c r="K155" s="17"/>
+      <c r="K155" s="11"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="11"/>
       <c r="B156" s="3"/>
       <c r="C156" s="9"/>
       <c r="D156" s="15"/>
+      <c r="K156" s="17"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="21"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="3"/>
       <c r="C157" s="9"/>
       <c r="D157" s="15"/>
+      <c r="K157" s="17"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="21"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="3"/>
       <c r="C158" s="9"/>
       <c r="D158" s="15"/>
-      <c r="K158" s="11"/>
     </row>
     <row r="159" spans="1:11">
+      <c r="A159" s="21"/>
       <c r="B159" s="3"/>
       <c r="C159" s="9"/>
       <c r="D159" s="15"/>
-      <c r="K159" s="11"/>
     </row>
     <row r="160" spans="1:11">
+      <c r="A160" s="21"/>
       <c r="B160" s="3"/>
       <c r="C160" s="9"/>
       <c r="D160" s="15"/>
       <c r="K160" s="11"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="21"/>
       <c r="B161" s="3"/>
       <c r="C161" s="9"/>
       <c r="D161" s="15"/>
+      <c r="K161" s="11"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="21"/>
       <c r="B162" s="3"/>
       <c r="C162" s="9"/>
       <c r="D162" s="15"/>
+      <c r="K162" s="11"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="21"/>
@@ -1805,7 +1837,7 @@
       <c r="D164" s="15"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="22"/>
+      <c r="A165" s="21"/>
       <c r="B165" s="3"/>
       <c r="C165" s="9"/>
       <c r="D165" s="15"/>
@@ -1815,49 +1847,47 @@
       <c r="B166" s="3"/>
       <c r="C166" s="9"/>
       <c r="D166" s="15"/>
-      <c r="K166" s="11"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="11"/>
+      <c r="A167" s="22"/>
       <c r="B167" s="3"/>
       <c r="C167" s="9"/>
       <c r="D167" s="15"/>
-      <c r="K167" s="17"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="11"/>
+      <c r="A168" s="21"/>
       <c r="B168" s="3"/>
       <c r="C168" s="9"/>
       <c r="D168" s="15"/>
-      <c r="K168" s="17"/>
+      <c r="K168" s="11"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="21"/>
+      <c r="A169" s="11"/>
       <c r="B169" s="3"/>
       <c r="C169" s="9"/>
       <c r="D169" s="15"/>
       <c r="K169" s="17"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="21"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="3"/>
       <c r="C170" s="9"/>
       <c r="D170" s="15"/>
       <c r="K170" s="17"/>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="11"/>
+      <c r="A171" s="21"/>
       <c r="B171" s="3"/>
       <c r="C171" s="9"/>
       <c r="D171" s="15"/>
       <c r="K171" s="17"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="11"/>
+      <c r="A172" s="21"/>
       <c r="B172" s="3"/>
       <c r="C172" s="9"/>
       <c r="D172" s="15"/>
-      <c r="K172" s="11"/>
+      <c r="K172" s="17"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="11"/>
@@ -1871,32 +1901,34 @@
       <c r="B174" s="3"/>
       <c r="C174" s="9"/>
       <c r="D174" s="15"/>
+      <c r="K174" s="11"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="11"/>
       <c r="B175" s="3"/>
       <c r="C175" s="9"/>
       <c r="D175" s="15"/>
-      <c r="K175" s="11"/>
+      <c r="K175" s="17"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="11"/>
       <c r="B176" s="3"/>
       <c r="C176" s="9"/>
       <c r="D176" s="15"/>
-      <c r="K176" s="23"/>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="11"/>
       <c r="B177" s="3"/>
       <c r="C177" s="9"/>
       <c r="D177" s="15"/>
+      <c r="K177" s="11"/>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="11"/>
       <c r="B178" s="3"/>
       <c r="C178" s="9"/>
       <c r="D178" s="15"/>
+      <c r="K178" s="23"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="11"/>
@@ -1905,39 +1937,39 @@
       <c r="D179" s="15"/>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="20"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="3"/>
       <c r="C180" s="9"/>
       <c r="D180" s="15"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="24"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="3"/>
       <c r="C181" s="9"/>
       <c r="D181" s="15"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="11"/>
+      <c r="A182" s="20"/>
       <c r="B182" s="3"/>
       <c r="C182" s="9"/>
       <c r="D182" s="15"/>
     </row>
     <row r="183" spans="1:11">
+      <c r="A183" s="24"/>
       <c r="B183" s="3"/>
       <c r="C183" s="9"/>
       <c r="D183" s="15"/>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="11"/>
-      <c r="B184" s="25"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="15"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="11"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="15"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="11"/>
@@ -1946,6 +1978,7 @@
       <c r="D186" s="27"/>
     </row>
     <row r="187" spans="1:11">
+      <c r="A187" s="11"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="27"/>
@@ -1957,25 +1990,36 @@
       <c r="D188" s="27"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="11"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="27"/>
-      <c r="K189" s="11"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="20"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="27"/>
-      <c r="K190" s="11"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="11"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="27"/>
-      <c r="K191" s="23"/>
+      <c r="K191" s="11"/>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="20"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="K192" s="11"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="11"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="K193" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
   <si>
     <t>Value</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>04/04/2023</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>08/04/2023</t>
+  </si>
+  <si>
+    <t>12/04/2023</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
   </si>
 </sst>
 </file>
@@ -872,7 +884,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="9"/>
     </row>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newautomations\testng-automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D019D9-E067-499B-9EE2-C20BC1B1150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC01FB1-7D41-494C-ABFB-885D74ED30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1164" windowWidth="17496" windowHeight="11076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
   <si>
     <t>Value</t>
   </si>
@@ -84,9 +84,6 @@
     <t>taskname</t>
   </si>
   <si>
-    <t>Test Task</t>
-  </si>
-  <si>
     <t>duedate</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>This task was a testing task if its visible there is a possiblility that some functionality on website is not working or response of website is slow.Delete this task if visible.</t>
   </si>
   <si>
-    <t>Adi123</t>
-  </si>
-  <si>
     <t>machine_unique_code_sample</t>
   </si>
   <si>
@@ -153,31 +147,331 @@
     <t>Test123</t>
   </si>
   <si>
-    <t>29/03/2023</t>
-  </si>
-  <si>
-    <t>30/03/2023</t>
-  </si>
-  <si>
-    <t>02/04/2023</t>
-  </si>
-  <si>
-    <t>03/04/2023</t>
-  </si>
-  <si>
-    <t>04/04/2023</t>
-  </si>
-  <si>
-    <t>05/04/2023</t>
-  </si>
-  <si>
-    <t>08/04/2023</t>
-  </si>
-  <si>
-    <t>12/04/2023</t>
-  </si>
-  <si>
-    <t>13/04/2023</t>
+    <t>This Is A Test Comment .</t>
+  </si>
+  <si>
+    <t>add_comment</t>
+  </si>
+  <si>
+    <t>20/04/2023</t>
+  </si>
+  <si>
+    <t>Test Task03:35:10</t>
+  </si>
+  <si>
+    <t>Adi@123</t>
+  </si>
+  <si>
+    <t>9686435690</t>
+  </si>
+  <si>
+    <t>9711474332</t>
+  </si>
+  <si>
+    <t>Test Task03:55:53</t>
+  </si>
+  <si>
+    <t>Test Task05:26:14</t>
+  </si>
+  <si>
+    <t>Test Task05:27:21</t>
+  </si>
+  <si>
+    <t>Test Task05:46:06</t>
+  </si>
+  <si>
+    <t>Test Task05:46:23</t>
+  </si>
+  <si>
+    <t>Test Task05:46:36</t>
+  </si>
+  <si>
+    <t>Test Task05:47:04</t>
+  </si>
+  <si>
+    <t>Test Task05:47:31</t>
+  </si>
+  <si>
+    <t>Test Task05:47:41</t>
+  </si>
+  <si>
+    <t>Test Task05:47:59</t>
+  </si>
+  <si>
+    <t>Test Task05:48:44</t>
+  </si>
+  <si>
+    <t>Test Task05:49:31</t>
+  </si>
+  <si>
+    <t>Test Task05:50:15</t>
+  </si>
+  <si>
+    <t>Test Task05:51:00</t>
+  </si>
+  <si>
+    <t>Test Task05:51:54</t>
+  </si>
+  <si>
+    <t>Test Task05:52:39</t>
+  </si>
+  <si>
+    <t>Test Task05:53:18</t>
+  </si>
+  <si>
+    <t>Test Task05:53:34</t>
+  </si>
+  <si>
+    <t>Test Task05:53:58</t>
+  </si>
+  <si>
+    <t>Test Task05:54:12</t>
+  </si>
+  <si>
+    <t>Test Task05:54:37</t>
+  </si>
+  <si>
+    <t>Test Task05:55:05</t>
+  </si>
+  <si>
+    <t>Test Task05:56:02</t>
+  </si>
+  <si>
+    <t>Test Task05:56:30</t>
+  </si>
+  <si>
+    <t>Test Task05:56:59</t>
+  </si>
+  <si>
+    <t>Test Task05:57:25</t>
+  </si>
+  <si>
+    <t>Test Task05:57:57</t>
+  </si>
+  <si>
+    <t>Test Task05:58:23</t>
+  </si>
+  <si>
+    <t>Test Task05:58:56</t>
+  </si>
+  <si>
+    <t>Test Task05:59:27</t>
+  </si>
+  <si>
+    <t>Test Task06:00:51</t>
+  </si>
+  <si>
+    <t>Test Task06:01:23</t>
+  </si>
+  <si>
+    <t>Test Task06:02:42</t>
+  </si>
+  <si>
+    <t>Test Task06:03:06</t>
+  </si>
+  <si>
+    <t>Test Task06:03:27</t>
+  </si>
+  <si>
+    <t>Test Task06:04:04</t>
+  </si>
+  <si>
+    <t>Test Task06:04:42</t>
+  </si>
+  <si>
+    <t>Test Task06:05:19</t>
+  </si>
+  <si>
+    <t>Test Task06:05:50</t>
+  </si>
+  <si>
+    <t>Test Task06:06:22</t>
+  </si>
+  <si>
+    <t>Test Task06:06:53</t>
+  </si>
+  <si>
+    <t>Test Task06:07:24</t>
+  </si>
+  <si>
+    <t>Test Task06:07:56</t>
+  </si>
+  <si>
+    <t>Test Task06:08:08</t>
+  </si>
+  <si>
+    <t>Test Task06:08:32</t>
+  </si>
+  <si>
+    <t>Test Task06:09:02</t>
+  </si>
+  <si>
+    <t>Test Task06:09:23</t>
+  </si>
+  <si>
+    <t>Test Task06:09:48</t>
+  </si>
+  <si>
+    <t>Test Task06:10:14</t>
+  </si>
+  <si>
+    <t>Test Task06:11:39</t>
+  </si>
+  <si>
+    <t>Test Task06:13:02</t>
+  </si>
+  <si>
+    <t>Test Task06:13:26</t>
+  </si>
+  <si>
+    <t>Test Task06:13:50</t>
+  </si>
+  <si>
+    <t>Test Task06:15:02</t>
+  </si>
+  <si>
+    <t>Test Task06:15:18</t>
+  </si>
+  <si>
+    <t>Test Task06:15:37</t>
+  </si>
+  <si>
+    <t>Test Task06:16:53</t>
+  </si>
+  <si>
+    <t>Test Task06:17:21</t>
+  </si>
+  <si>
+    <t>Test Task06:18:36</t>
+  </si>
+  <si>
+    <t>Test Task06:18:39</t>
+  </si>
+  <si>
+    <t>Test Task06:18:52</t>
+  </si>
+  <si>
+    <t>Test Task06:19:04</t>
+  </si>
+  <si>
+    <t>Test Task06:19:07</t>
+  </si>
+  <si>
+    <t>Test Task06:19:11</t>
+  </si>
+  <si>
+    <t>Test Task06:20:21</t>
+  </si>
+  <si>
+    <t>Test Task06:21:16</t>
+  </si>
+  <si>
+    <t>Test Task06:22:14</t>
+  </si>
+  <si>
+    <t>Test Task06:22:34</t>
+  </si>
+  <si>
+    <t>Test Task06:22:49</t>
+  </si>
+  <si>
+    <t>Test Task06:22:59</t>
+  </si>
+  <si>
+    <t>Test Task06:23:51</t>
+  </si>
+  <si>
+    <t>Test Task06:24:23</t>
+  </si>
+  <si>
+    <t>Test Task06:24:32</t>
+  </si>
+  <si>
+    <t>Test Task06:24:47</t>
+  </si>
+  <si>
+    <t>Test Task06:26:09</t>
+  </si>
+  <si>
+    <t>Test Task06:27:21</t>
+  </si>
+  <si>
+    <t>Test Task06:27:39</t>
+  </si>
+  <si>
+    <t>Test Task06:28:02</t>
+  </si>
+  <si>
+    <t>Test Task06:28:21</t>
+  </si>
+  <si>
+    <t>Test Task06:29:14</t>
+  </si>
+  <si>
+    <t>Test Task06:29:34</t>
+  </si>
+  <si>
+    <t>Test Task06:31:01</t>
+  </si>
+  <si>
+    <t>Test Task06:32:33</t>
+  </si>
+  <si>
+    <t>Test Task06:34:05</t>
+  </si>
+  <si>
+    <t>Test Task06:34:33</t>
+  </si>
+  <si>
+    <t>Test Task06:36:27</t>
+  </si>
+  <si>
+    <t>Test Task06:38:01</t>
+  </si>
+  <si>
+    <t>Test Task06:39:23</t>
+  </si>
+  <si>
+    <t>Test Task06:40:45</t>
+  </si>
+  <si>
+    <t>Test Task06:43:28</t>
+  </si>
+  <si>
+    <t>Test Task06:43:57</t>
+  </si>
+  <si>
+    <t>Test Task06:44:43</t>
+  </si>
+  <si>
+    <t>Test Task06:46:29</t>
+  </si>
+  <si>
+    <t>Test Task06:46:51</t>
+  </si>
+  <si>
+    <t>Test Task06:48:38</t>
+  </si>
+  <si>
+    <t>Test Task06:50:00</t>
+  </si>
+  <si>
+    <t>Test Task06:50:22</t>
+  </si>
+  <si>
+    <t>Test Task06:51:10</t>
+  </si>
+  <si>
+    <t>Test Task06:51:38</t>
+  </si>
+  <si>
+    <t>Test Task06:52:11</t>
+  </si>
+  <si>
+    <t>Test Task06:52:44</t>
+  </si>
+  <si>
+    <t>Test Task06:52:55</t>
   </si>
 </sst>
 </file>
@@ -695,7 +989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -766,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -774,10 +1068,10 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -858,107 +1152,111 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3">
-        <v>9686435690</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3">
-        <v>9711474332</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.8">
       <c r="A23" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="11"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="C25" s="9"/>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>Value</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>Test Task06:52:55</t>
+  </si>
+  <si>
+    <t>18/08/2023</t>
+  </si>
+  <si>
+    <t>Test Task16:27:48</t>
+  </si>
+  <si>
+    <t>Test Task16:35:52</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="9"/>
     </row>
@@ -1178,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="D15" s="9"/>
     </row>

--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
   <si>
     <t>Value</t>
   </si>
@@ -481,6 +481,12 @@
   </si>
   <si>
     <t>Test Task16:35:52</t>
+  </si>
+  <si>
+    <t>26/01/2024</t>
+  </si>
+  <si>
+    <t>Test Task15:50:22</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C12" s="9"/>
     </row>
@@ -1187,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D15" s="9"/>
     </row>
